--- a/Code/Results/Cases/Case_1_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022866104609759</v>
+        <v>1.046622029432734</v>
       </c>
       <c r="D2">
-        <v>1.060541886967796</v>
+        <v>1.066276933474887</v>
       </c>
       <c r="E2">
-        <v>1.039237447564838</v>
+        <v>1.056001738619828</v>
       </c>
       <c r="F2">
-        <v>1.057425715503954</v>
+        <v>1.071115961139446</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066544695521801</v>
+        <v>1.053250765733669</v>
       </c>
       <c r="J2">
-        <v>1.04438376034509</v>
+        <v>1.051675444115624</v>
       </c>
       <c r="K2">
-        <v>1.071217610275612</v>
+        <v>1.068987915750333</v>
       </c>
       <c r="L2">
-        <v>1.050175923458384</v>
+        <v>1.058740647635617</v>
       </c>
       <c r="M2">
-        <v>1.068139050076998</v>
+        <v>1.073813992218905</v>
       </c>
       <c r="N2">
-        <v>1.045866905077272</v>
+        <v>1.053168943875127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027097083145684</v>
+        <v>1.047523065515943</v>
       </c>
       <c r="D3">
-        <v>1.063803416518109</v>
+        <v>1.066977362202182</v>
       </c>
       <c r="E3">
-        <v>1.042701745642141</v>
+        <v>1.056783674533134</v>
       </c>
       <c r="F3">
-        <v>1.061085775048176</v>
+        <v>1.071934318636481</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068081428806352</v>
+        <v>1.053514238606107</v>
       </c>
       <c r="J3">
-        <v>1.046875355304902</v>
+        <v>1.052224861482665</v>
       </c>
       <c r="K3">
-        <v>1.073680166954504</v>
+        <v>1.069504193011164</v>
       </c>
       <c r="L3">
-        <v>1.052815917352887</v>
+        <v>1.059336216902908</v>
       </c>
       <c r="M3">
-        <v>1.070992451153335</v>
+        <v>1.07444883673121</v>
       </c>
       <c r="N3">
-        <v>1.048362038387716</v>
+        <v>1.053719141477849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029783254564185</v>
+        <v>1.048106725103795</v>
       </c>
       <c r="D4">
-        <v>1.065875435801981</v>
+        <v>1.067430900236477</v>
       </c>
       <c r="E4">
-        <v>1.044906375879777</v>
+        <v>1.057290507400888</v>
       </c>
       <c r="F4">
-        <v>1.063413789840916</v>
+        <v>1.072464622561623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069047322141786</v>
+        <v>1.053683688648075</v>
       </c>
       <c r="J4">
-        <v>1.04845461123729</v>
+        <v>1.052580342785495</v>
       </c>
       <c r="K4">
-        <v>1.075238860415824</v>
+        <v>1.069837894455299</v>
       </c>
       <c r="L4">
-        <v>1.054491424705355</v>
+        <v>1.059721796679053</v>
       </c>
       <c r="M4">
-        <v>1.072802679005428</v>
+        <v>1.074859739762261</v>
       </c>
       <c r="N4">
-        <v>1.049943537044672</v>
+        <v>1.054075127604903</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030900583772427</v>
+        <v>1.048352244794476</v>
       </c>
       <c r="D5">
-        <v>1.066737569745071</v>
+        <v>1.067621640984599</v>
       </c>
       <c r="E5">
-        <v>1.045824616260795</v>
+        <v>1.057503786066545</v>
       </c>
       <c r="F5">
-        <v>1.064383130263947</v>
+        <v>1.072687745314112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069446712773969</v>
+        <v>1.053754676968539</v>
       </c>
       <c r="J5">
-        <v>1.049110856981444</v>
+        <v>1.052729779137434</v>
       </c>
       <c r="K5">
-        <v>1.075886023796691</v>
+        <v>1.06997809392408</v>
       </c>
       <c r="L5">
-        <v>1.055188190041333</v>
+        <v>1.059883942564952</v>
       </c>
       <c r="M5">
-        <v>1.073555289067055</v>
+        <v>1.075032509721689</v>
       </c>
       <c r="N5">
-        <v>1.050600714733054</v>
+        <v>1.054224776173603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031087499692666</v>
+        <v>1.048393477339952</v>
       </c>
       <c r="D6">
-        <v>1.066881808537378</v>
+        <v>1.067653671445833</v>
       </c>
       <c r="E6">
-        <v>1.04597829706303</v>
+        <v>1.057539608531465</v>
       </c>
       <c r="F6">
-        <v>1.064545346236873</v>
+        <v>1.072725219283503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069513385160775</v>
+        <v>1.053766581625572</v>
       </c>
       <c r="J6">
-        <v>1.049220599775993</v>
+        <v>1.052754869656033</v>
       </c>
       <c r="K6">
-        <v>1.075994215565089</v>
+        <v>1.070001628795502</v>
       </c>
       <c r="L6">
-        <v>1.05530473954074</v>
+        <v>1.059911170357693</v>
       </c>
       <c r="M6">
-        <v>1.073681169125158</v>
+        <v>1.075061520058538</v>
       </c>
       <c r="N6">
-        <v>1.05071061337496</v>
+        <v>1.054249902323616</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029798230753369</v>
+        <v>1.048110005165387</v>
       </c>
       <c r="D7">
-        <v>1.06588699049074</v>
+        <v>1.067433448637664</v>
       </c>
       <c r="E7">
-        <v>1.044918678837669</v>
+        <v>1.057293356433029</v>
       </c>
       <c r="F7">
-        <v>1.063426778608204</v>
+        <v>1.072467603222044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069052684841619</v>
+        <v>1.053684638174844</v>
       </c>
       <c r="J7">
-        <v>1.048463409891294</v>
+        <v>1.052582339594197</v>
       </c>
       <c r="K7">
-        <v>1.07524753944864</v>
+        <v>1.069839768157384</v>
       </c>
       <c r="L7">
-        <v>1.054500764564551</v>
+        <v>1.059723963092785</v>
       </c>
       <c r="M7">
-        <v>1.072812768156689</v>
+        <v>1.074862048221343</v>
       </c>
       <c r="N7">
-        <v>1.049952348193774</v>
+        <v>1.054077127249303</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024306908130529</v>
+        <v>1.046926407726861</v>
       </c>
       <c r="D8">
-        <v>1.061652244146238</v>
+        <v>1.06651358060314</v>
       </c>
       <c r="E8">
-        <v>1.040416052585832</v>
+        <v>1.056265816776087</v>
       </c>
       <c r="F8">
-        <v>1.058671169239988</v>
+        <v>1.071392367969957</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067070028059023</v>
+        <v>1.053340021342234</v>
       </c>
       <c r="J8">
-        <v>1.045232769532552</v>
+        <v>1.051861127477939</v>
       </c>
       <c r="K8">
-        <v>1.072057164535329</v>
+        <v>1.069162468712715</v>
       </c>
       <c r="L8">
-        <v>1.051075038280629</v>
+        <v>1.058941879478416</v>
       </c>
       <c r="M8">
-        <v>1.069110993234581</v>
+        <v>1.074028515943168</v>
       </c>
       <c r="N8">
-        <v>1.046717119955162</v>
+        <v>1.053354890929115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014216490532334</v>
+        <v>1.044845636297485</v>
       </c>
       <c r="D9">
-        <v>1.053884031047397</v>
+        <v>1.06489513713743</v>
       </c>
       <c r="E9">
-        <v>1.032185617456658</v>
+        <v>1.054461883215228</v>
       </c>
       <c r="F9">
-        <v>1.049969030134576</v>
+        <v>1.069503658031989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06335132291146</v>
+        <v>1.052724875061296</v>
       </c>
       <c r="J9">
-        <v>1.039277026205898</v>
+        <v>1.050590093306738</v>
       </c>
       <c r="K9">
-        <v>1.066159443898</v>
+        <v>1.067966249466966</v>
       </c>
       <c r="L9">
-        <v>1.044777229630515</v>
+        <v>1.057565389191405</v>
       </c>
       <c r="M9">
-        <v>1.062300270750951</v>
+        <v>1.072560681166137</v>
       </c>
       <c r="N9">
-        <v>1.040752918789852</v>
+        <v>1.052082051743602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007182856683205</v>
+        <v>1.043461817197436</v>
       </c>
       <c r="D10">
-        <v>1.048481941408787</v>
+        <v>1.063817948478855</v>
       </c>
       <c r="E10">
-        <v>1.026480568622007</v>
+        <v>1.053263880901409</v>
       </c>
       <c r="F10">
-        <v>1.04393099280563</v>
+        <v>1.068248654556102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06071067137498</v>
+        <v>1.052309522633538</v>
       </c>
       <c r="J10">
-        <v>1.035114361020032</v>
+        <v>1.049742694939214</v>
       </c>
       <c r="K10">
-        <v>1.062027740419155</v>
+        <v>1.067167014842608</v>
       </c>
       <c r="L10">
-        <v>1.040387620324624</v>
+        <v>1.05664891079679</v>
       </c>
       <c r="M10">
-        <v>1.05754991294738</v>
+        <v>1.071582855635197</v>
       </c>
       <c r="N10">
-        <v>1.036584342141957</v>
+        <v>1.051233449973197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004057670103545</v>
+        <v>1.042863422690441</v>
       </c>
       <c r="D11">
-        <v>1.046085637159624</v>
+        <v>1.063351956739746</v>
       </c>
       <c r="E11">
-        <v>1.023953969902092</v>
+        <v>1.05274624957266</v>
       </c>
       <c r="F11">
-        <v>1.041255554454267</v>
+        <v>1.067706228009754</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059526477867979</v>
+        <v>1.052128434129268</v>
       </c>
       <c r="J11">
-        <v>1.033262614125703</v>
+        <v>1.049375766640174</v>
       </c>
       <c r="K11">
-        <v>1.060187808989329</v>
+        <v>1.066820538175535</v>
       </c>
       <c r="L11">
-        <v>1.038437859247689</v>
+        <v>1.056252362328961</v>
       </c>
       <c r="M11">
-        <v>1.055439246492186</v>
+        <v>1.071159638365319</v>
       </c>
       <c r="N11">
-        <v>1.03472996555464</v>
+        <v>1.050866000593885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00288425941755</v>
+        <v>1.042641275112487</v>
       </c>
       <c r="D12">
-        <v>1.045186574557517</v>
+        <v>1.063178934255801</v>
       </c>
       <c r="E12">
-        <v>1.023006612409881</v>
+        <v>1.052554146951727</v>
       </c>
       <c r="F12">
-        <v>1.040252188733372</v>
+        <v>1.067504898441528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059080265898148</v>
+        <v>1.052060984564512</v>
       </c>
       <c r="J12">
-        <v>1.032567051836604</v>
+        <v>1.049239474409284</v>
       </c>
       <c r="K12">
-        <v>1.05949641881057</v>
+        <v>1.066691782157368</v>
       </c>
       <c r="L12">
-        <v>1.037705928155594</v>
+        <v>1.056105111869819</v>
       </c>
       <c r="M12">
-        <v>1.054646820663811</v>
+        <v>1.071002466307113</v>
       </c>
       <c r="N12">
-        <v>1.034033415487308</v>
+        <v>1.050729514812395</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003136539563433</v>
+        <v>1.042688920944061</v>
       </c>
       <c r="D13">
-        <v>1.045379838738898</v>
+        <v>1.063216045078468</v>
       </c>
       <c r="E13">
-        <v>1.0232102319077</v>
+        <v>1.052595345954614</v>
       </c>
       <c r="F13">
-        <v>1.040467855273916</v>
+        <v>1.067548077418609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059176270970145</v>
+        <v>1.052075461094542</v>
       </c>
       <c r="J13">
-        <v>1.032716608242232</v>
+        <v>1.049268709479068</v>
       </c>
       <c r="K13">
-        <v>1.059645089709096</v>
+        <v>1.066719403415504</v>
       </c>
       <c r="L13">
-        <v>1.037863284071343</v>
+        <v>1.056136695522135</v>
       </c>
       <c r="M13">
-        <v>1.054817186173369</v>
+        <v>1.071036178880161</v>
       </c>
       <c r="N13">
-        <v>1.034183184280187</v>
+        <v>1.050758791399332</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003960935918134</v>
+        <v>1.042845057389748</v>
       </c>
       <c r="D14">
-        <v>1.046011505598305</v>
+        <v>1.063337653258003</v>
       </c>
       <c r="E14">
-        <v>1.023875844372438</v>
+        <v>1.052730366858789</v>
       </c>
       <c r="F14">
-        <v>1.041172814146889</v>
+        <v>1.067689582937542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059489724724644</v>
+        <v>1.0521228625013</v>
       </c>
       <c r="J14">
-        <v>1.033205278664603</v>
+        <v>1.049364500649099</v>
       </c>
       <c r="K14">
-        <v>1.060130822680114</v>
+        <v>1.066809896361837</v>
       </c>
       <c r="L14">
-        <v>1.038377516754043</v>
+        <v>1.056240189628375</v>
       </c>
       <c r="M14">
-        <v>1.055373918449071</v>
+        <v>1.071146645859893</v>
       </c>
       <c r="N14">
-        <v>1.034672548670609</v>
+        <v>1.050854718603812</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004467187844173</v>
+        <v>1.042941274517764</v>
       </c>
       <c r="D15">
-        <v>1.046399496226199</v>
+        <v>1.063412589081445</v>
       </c>
       <c r="E15">
-        <v>1.02428476258762</v>
+        <v>1.052813580099601</v>
       </c>
       <c r="F15">
-        <v>1.04160587851436</v>
+        <v>1.067776789328022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05968200558918</v>
+        <v>1.052152043551123</v>
       </c>
       <c r="J15">
-        <v>1.033505328457973</v>
+        <v>1.049423520954339</v>
       </c>
       <c r="K15">
-        <v>1.060429034602623</v>
+        <v>1.066865644254472</v>
       </c>
       <c r="L15">
-        <v>1.038693321339263</v>
+        <v>1.056303961804881</v>
       </c>
       <c r="M15">
-        <v>1.055715811402887</v>
+        <v>1.071214712189348</v>
       </c>
       <c r="N15">
-        <v>1.034973024569101</v>
+        <v>1.050913822724655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007388536263255</v>
+        <v>1.04350154781493</v>
       </c>
       <c r="D16">
-        <v>1.048639739905311</v>
+        <v>1.063848884197491</v>
       </c>
       <c r="E16">
-        <v>1.026647030442844</v>
+        <v>1.053298257952732</v>
       </c>
       <c r="F16">
-        <v>1.04410723260772</v>
+        <v>1.068284674807404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060788384534392</v>
+        <v>1.052321514861779</v>
       </c>
       <c r="J16">
-        <v>1.035236188729958</v>
+        <v>1.049767046877417</v>
       </c>
       <c r="K16">
-        <v>1.062148752318184</v>
+        <v>1.067190000987376</v>
       </c>
       <c r="L16">
-        <v>1.040515958247774</v>
+        <v>1.056675234692602</v>
       </c>
       <c r="M16">
-        <v>1.057688828831665</v>
+        <v>1.071610947251989</v>
       </c>
       <c r="N16">
-        <v>1.036706342861205</v>
+        <v>1.051257836493946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009199289377057</v>
+        <v>1.043853209805945</v>
       </c>
       <c r="D17">
-        <v>1.050029419742055</v>
+        <v>1.064122679136935</v>
       </c>
       <c r="E17">
-        <v>1.028113469415978</v>
+        <v>1.053602582366502</v>
       </c>
       <c r="F17">
-        <v>1.045659654687802</v>
+        <v>1.068603526498722</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061471316648404</v>
+        <v>1.052427488802511</v>
       </c>
       <c r="J17">
-        <v>1.036308485500436</v>
+        <v>1.049982532641254</v>
       </c>
       <c r="K17">
-        <v>1.063213648862838</v>
+        <v>1.067393354514866</v>
       </c>
       <c r="L17">
-        <v>1.041645891918553</v>
+        <v>1.056908203668375</v>
       </c>
       <c r="M17">
-        <v>1.058911819460219</v>
+        <v>1.071859546325614</v>
       </c>
       <c r="N17">
-        <v>1.037780162416091</v>
+        <v>1.051473628272284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010247837069855</v>
+        <v>1.044058406193755</v>
       </c>
       <c r="D18">
-        <v>1.050834507851461</v>
+        <v>1.064282421239692</v>
       </c>
       <c r="E18">
-        <v>1.028963417818476</v>
+        <v>1.053780196785566</v>
       </c>
       <c r="F18">
-        <v>1.046559308241525</v>
+        <v>1.068789603488896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06186574113845</v>
+        <v>1.052489182091525</v>
       </c>
       <c r="J18">
-        <v>1.03692920654191</v>
+        <v>1.050108221839645</v>
       </c>
       <c r="K18">
-        <v>1.063829898345034</v>
+        <v>1.067511928231431</v>
       </c>
       <c r="L18">
-        <v>1.042300256102532</v>
+        <v>1.057044118685623</v>
       </c>
       <c r="M18">
-        <v>1.059620010316309</v>
+        <v>1.072004567963753</v>
       </c>
       <c r="N18">
-        <v>1.038401764952642</v>
+        <v>1.051599495963754</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010604088118806</v>
+        <v>1.044128386031166</v>
       </c>
       <c r="D19">
-        <v>1.05110810230509</v>
+        <v>1.064336896263189</v>
       </c>
       <c r="E19">
-        <v>1.029252324310219</v>
+        <v>1.053840776833109</v>
       </c>
       <c r="F19">
-        <v>1.04686508772024</v>
+        <v>1.06885306719428</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061999571667936</v>
+        <v>1.052510197612547</v>
       </c>
       <c r="J19">
-        <v>1.03714006370481</v>
+        <v>1.050151078572633</v>
       </c>
       <c r="K19">
-        <v>1.064039203859901</v>
+        <v>1.067552352155673</v>
       </c>
       <c r="L19">
-        <v>1.042522588874642</v>
+        <v>1.057090466929616</v>
       </c>
       <c r="M19">
-        <v>1.059860620577218</v>
+        <v>1.072054019603226</v>
       </c>
       <c r="N19">
-        <v>1.038612921556899</v>
+        <v>1.051642413558219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009005806688624</v>
+        <v>1.043815471735293</v>
       </c>
       <c r="D20">
-        <v>1.049880890638884</v>
+        <v>1.064093299158784</v>
       </c>
       <c r="E20">
-        <v>1.027956695901686</v>
+        <v>1.053569920143015</v>
       </c>
       <c r="F20">
-        <v>1.045493702435901</v>
+        <v>1.068569306766912</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061398451354461</v>
+        <v>1.052416131158177</v>
       </c>
       <c r="J20">
-        <v>1.036193929974094</v>
+        <v>1.049959413049958</v>
       </c>
       <c r="K20">
-        <v>1.063099903201298</v>
+        <v>1.067371540625425</v>
       </c>
       <c r="L20">
-        <v>1.041525149964734</v>
+        <v>1.056883205380314</v>
       </c>
       <c r="M20">
-        <v>1.058781140266233</v>
+        <v>1.071832872124691</v>
       </c>
       <c r="N20">
-        <v>1.037665444207762</v>
+        <v>1.051450475848517</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003718524126938</v>
+        <v>1.042799075697761</v>
       </c>
       <c r="D21">
-        <v>1.045825746195419</v>
+        <v>1.063301840799838</v>
       </c>
       <c r="E21">
-        <v>1.023680086273932</v>
+        <v>1.052690601897165</v>
       </c>
       <c r="F21">
-        <v>1.040965489652583</v>
+        <v>1.067647908883975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059397597559828</v>
+        <v>1.052108909075407</v>
       </c>
       <c r="J21">
-        <v>1.033061593903858</v>
+        <v>1.049336292492498</v>
       </c>
       <c r="K21">
-        <v>1.059988008717582</v>
+        <v>1.066783250066732</v>
       </c>
       <c r="L21">
-        <v>1.038226303494741</v>
+        <v>1.056209711932562</v>
       </c>
       <c r="M21">
-        <v>1.055210210373357</v>
+        <v>1.071114115256418</v>
       </c>
       <c r="N21">
-        <v>1.034528659861022</v>
+        <v>1.050826470388393</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000321094116599</v>
+        <v>1.042160738237942</v>
       </c>
       <c r="D22">
-        <v>1.043224021752804</v>
+        <v>1.062804611488867</v>
       </c>
       <c r="E22">
-        <v>1.020939692452665</v>
+        <v>1.052138716515184</v>
       </c>
       <c r="F22">
-        <v>1.038062709899481</v>
+        <v>1.067069468652383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058102722345413</v>
+        <v>1.05191467505888</v>
       </c>
       <c r="J22">
-        <v>1.031047200365261</v>
+        <v>1.04894451982838</v>
       </c>
       <c r="K22">
-        <v>1.057985226509682</v>
+        <v>1.066413026850991</v>
       </c>
       <c r="L22">
-        <v>1.036107438425918</v>
+        <v>1.055786522605444</v>
       </c>
       <c r="M22">
-        <v>1.052916056264408</v>
+        <v>1.070662376739892</v>
       </c>
       <c r="N22">
-        <v>1.032511405652546</v>
+        <v>1.050434141362155</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002129283829383</v>
+        <v>1.042499065150529</v>
       </c>
       <c r="D23">
-        <v>1.044608316038145</v>
+        <v>1.063068164405227</v>
       </c>
       <c r="E23">
-        <v>1.022397454579555</v>
+        <v>1.052431188232001</v>
       </c>
       <c r="F23">
-        <v>1.039606961486176</v>
+        <v>1.067376026816516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058792732460681</v>
+        <v>1.052017743469076</v>
       </c>
       <c r="J23">
-        <v>1.032119449019965</v>
+        <v>1.049152204788287</v>
       </c>
       <c r="K23">
-        <v>1.059051429431601</v>
+        <v>1.066609321107727</v>
       </c>
       <c r="L23">
-        <v>1.037235048518011</v>
+        <v>1.056010837929904</v>
       </c>
       <c r="M23">
-        <v>1.054136997761075</v>
+        <v>1.070901835030824</v>
       </c>
       <c r="N23">
-        <v>1.033585177023329</v>
+        <v>1.050642121258526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009093256733337</v>
+        <v>1.04383252370445</v>
       </c>
       <c r="D24">
-        <v>1.049948021481559</v>
+        <v>1.064106574576256</v>
       </c>
       <c r="E24">
-        <v>1.02802755176469</v>
+        <v>1.053584678465051</v>
       </c>
       <c r="F24">
-        <v>1.045568707156072</v>
+        <v>1.068584768893748</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061431388136715</v>
+        <v>1.052421263558143</v>
       </c>
       <c r="J24">
-        <v>1.036245707283015</v>
+        <v>1.049969859798229</v>
       </c>
       <c r="K24">
-        <v>1.063151315048271</v>
+        <v>1.067381397503622</v>
       </c>
       <c r="L24">
-        <v>1.041579722578255</v>
+        <v>1.056894500943809</v>
       </c>
       <c r="M24">
-        <v>1.058840204485766</v>
+        <v>1.071844924992456</v>
       </c>
       <c r="N24">
-        <v>1.037717295046401</v>
+        <v>1.051460937432368</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016876981119614</v>
+        <v>1.045382979045832</v>
       </c>
       <c r="D25">
-        <v>1.055930311644149</v>
+        <v>1.065313238644726</v>
       </c>
       <c r="E25">
-        <v>1.034350370099694</v>
+        <v>1.054927436294413</v>
       </c>
       <c r="F25">
-        <v>1.05225890998851</v>
+        <v>1.069991213631526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064340378783375</v>
+        <v>1.052884834863391</v>
       </c>
       <c r="J25">
-        <v>1.040849417296395</v>
+        <v>1.050918698649173</v>
       </c>
       <c r="K25">
-        <v>1.067718271354857</v>
+        <v>1.068275816105589</v>
       </c>
       <c r="L25">
-        <v>1.046437856438498</v>
+        <v>1.057921042373558</v>
       </c>
       <c r="M25">
-        <v>1.064096736287008</v>
+        <v>1.072940029277278</v>
       </c>
       <c r="N25">
-        <v>1.042327542856053</v>
+        <v>1.052411123743314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.046622029432734</v>
+        <v>1.022866104609758</v>
       </c>
       <c r="D2">
-        <v>1.066276933474887</v>
+        <v>1.060541886967795</v>
       </c>
       <c r="E2">
-        <v>1.056001738619828</v>
+        <v>1.039237447564837</v>
       </c>
       <c r="F2">
-        <v>1.071115961139446</v>
+        <v>1.057425715503953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053250765733669</v>
+        <v>1.066544695521801</v>
       </c>
       <c r="J2">
-        <v>1.051675444115624</v>
+        <v>1.044383760345089</v>
       </c>
       <c r="K2">
-        <v>1.068987915750333</v>
+        <v>1.071217610275612</v>
       </c>
       <c r="L2">
-        <v>1.058740647635617</v>
+        <v>1.050175923458383</v>
       </c>
       <c r="M2">
-        <v>1.073813992218905</v>
+        <v>1.068139050076997</v>
       </c>
       <c r="N2">
-        <v>1.053168943875127</v>
+        <v>1.045866905077271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047523065515943</v>
+        <v>1.027097083145683</v>
       </c>
       <c r="D3">
-        <v>1.066977362202182</v>
+        <v>1.063803416518109</v>
       </c>
       <c r="E3">
-        <v>1.056783674533134</v>
+        <v>1.04270174564214</v>
       </c>
       <c r="F3">
-        <v>1.071934318636481</v>
+        <v>1.061085775048175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053514238606107</v>
+        <v>1.068081428806352</v>
       </c>
       <c r="J3">
-        <v>1.052224861482665</v>
+        <v>1.046875355304901</v>
       </c>
       <c r="K3">
-        <v>1.069504193011164</v>
+        <v>1.073680166954503</v>
       </c>
       <c r="L3">
-        <v>1.059336216902908</v>
+        <v>1.052815917352886</v>
       </c>
       <c r="M3">
-        <v>1.07444883673121</v>
+        <v>1.070992451153334</v>
       </c>
       <c r="N3">
-        <v>1.053719141477849</v>
+        <v>1.048362038387716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048106725103795</v>
+        <v>1.029783254564184</v>
       </c>
       <c r="D4">
-        <v>1.067430900236477</v>
+        <v>1.065875435801979</v>
       </c>
       <c r="E4">
-        <v>1.057290507400888</v>
+        <v>1.044906375879775</v>
       </c>
       <c r="F4">
-        <v>1.072464622561623</v>
+        <v>1.063413789840915</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053683688648075</v>
+        <v>1.069047322141786</v>
       </c>
       <c r="J4">
-        <v>1.052580342785495</v>
+        <v>1.048454611237289</v>
       </c>
       <c r="K4">
-        <v>1.069837894455299</v>
+        <v>1.075238860415822</v>
       </c>
       <c r="L4">
-        <v>1.059721796679053</v>
+        <v>1.054491424705354</v>
       </c>
       <c r="M4">
-        <v>1.074859739762261</v>
+        <v>1.072802679005426</v>
       </c>
       <c r="N4">
-        <v>1.054075127604903</v>
+        <v>1.04994353704467</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048352244794476</v>
+        <v>1.030900583772426</v>
       </c>
       <c r="D5">
-        <v>1.067621640984599</v>
+        <v>1.066737569745069</v>
       </c>
       <c r="E5">
-        <v>1.057503786066545</v>
+        <v>1.045824616260795</v>
       </c>
       <c r="F5">
-        <v>1.072687745314112</v>
+        <v>1.064383130263945</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053754676968539</v>
+        <v>1.069446712773968</v>
       </c>
       <c r="J5">
-        <v>1.052729779137434</v>
+        <v>1.049110856981442</v>
       </c>
       <c r="K5">
-        <v>1.06997809392408</v>
+        <v>1.07588602379669</v>
       </c>
       <c r="L5">
-        <v>1.059883942564952</v>
+        <v>1.055188190041332</v>
       </c>
       <c r="M5">
-        <v>1.075032509721689</v>
+        <v>1.073555289067054</v>
       </c>
       <c r="N5">
-        <v>1.054224776173603</v>
+        <v>1.050600714733053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048393477339952</v>
+        <v>1.031087499692665</v>
       </c>
       <c r="D6">
-        <v>1.067653671445833</v>
+        <v>1.066881808537378</v>
       </c>
       <c r="E6">
-        <v>1.057539608531465</v>
+        <v>1.045978297063029</v>
       </c>
       <c r="F6">
-        <v>1.072725219283503</v>
+        <v>1.064545346236873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053766581625572</v>
+        <v>1.069513385160775</v>
       </c>
       <c r="J6">
-        <v>1.052754869656033</v>
+        <v>1.049220599775993</v>
       </c>
       <c r="K6">
-        <v>1.070001628795502</v>
+        <v>1.075994215565089</v>
       </c>
       <c r="L6">
-        <v>1.059911170357693</v>
+        <v>1.05530473954074</v>
       </c>
       <c r="M6">
-        <v>1.075061520058538</v>
+        <v>1.073681169125158</v>
       </c>
       <c r="N6">
-        <v>1.054249902323616</v>
+        <v>1.05071061337496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048110005165387</v>
+        <v>1.029798230753368</v>
       </c>
       <c r="D7">
-        <v>1.067433448637664</v>
+        <v>1.06588699049074</v>
       </c>
       <c r="E7">
-        <v>1.057293356433029</v>
+        <v>1.044918678837669</v>
       </c>
       <c r="F7">
-        <v>1.072467603222044</v>
+        <v>1.063426778608204</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053684638174844</v>
+        <v>1.069052684841618</v>
       </c>
       <c r="J7">
-        <v>1.052582339594197</v>
+        <v>1.048463409891293</v>
       </c>
       <c r="K7">
-        <v>1.069839768157384</v>
+        <v>1.075247539448639</v>
       </c>
       <c r="L7">
-        <v>1.059723963092785</v>
+        <v>1.05450076456455</v>
       </c>
       <c r="M7">
-        <v>1.074862048221343</v>
+        <v>1.072812768156689</v>
       </c>
       <c r="N7">
-        <v>1.054077127249303</v>
+        <v>1.049952348193773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046926407726861</v>
+        <v>1.024306908130529</v>
       </c>
       <c r="D8">
-        <v>1.06651358060314</v>
+        <v>1.061652244146238</v>
       </c>
       <c r="E8">
-        <v>1.056265816776087</v>
+        <v>1.040416052585832</v>
       </c>
       <c r="F8">
-        <v>1.071392367969957</v>
+        <v>1.058671169239989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053340021342234</v>
+        <v>1.067070028059023</v>
       </c>
       <c r="J8">
-        <v>1.051861127477939</v>
+        <v>1.045232769532552</v>
       </c>
       <c r="K8">
-        <v>1.069162468712715</v>
+        <v>1.072057164535329</v>
       </c>
       <c r="L8">
-        <v>1.058941879478416</v>
+        <v>1.051075038280629</v>
       </c>
       <c r="M8">
-        <v>1.074028515943168</v>
+        <v>1.069110993234581</v>
       </c>
       <c r="N8">
-        <v>1.053354890929115</v>
+        <v>1.046717119955163</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044845636297485</v>
+        <v>1.014216490532334</v>
       </c>
       <c r="D9">
-        <v>1.06489513713743</v>
+        <v>1.053884031047398</v>
       </c>
       <c r="E9">
-        <v>1.054461883215228</v>
+        <v>1.032185617456658</v>
       </c>
       <c r="F9">
-        <v>1.069503658031989</v>
+        <v>1.049969030134577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052724875061296</v>
+        <v>1.06335132291146</v>
       </c>
       <c r="J9">
-        <v>1.050590093306738</v>
+        <v>1.039277026205899</v>
       </c>
       <c r="K9">
-        <v>1.067966249466966</v>
+        <v>1.066159443898</v>
       </c>
       <c r="L9">
-        <v>1.057565389191405</v>
+        <v>1.044777229630515</v>
       </c>
       <c r="M9">
-        <v>1.072560681166137</v>
+        <v>1.062300270750952</v>
       </c>
       <c r="N9">
-        <v>1.052082051743602</v>
+        <v>1.040752918789852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043461817197436</v>
+        <v>1.007182856683205</v>
       </c>
       <c r="D10">
-        <v>1.063817948478855</v>
+        <v>1.048481941408787</v>
       </c>
       <c r="E10">
-        <v>1.053263880901409</v>
+        <v>1.026480568622006</v>
       </c>
       <c r="F10">
-        <v>1.068248654556102</v>
+        <v>1.04393099280563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052309522633538</v>
+        <v>1.06071067137498</v>
       </c>
       <c r="J10">
-        <v>1.049742694939214</v>
+        <v>1.035114361020031</v>
       </c>
       <c r="K10">
-        <v>1.067167014842608</v>
+        <v>1.062027740419155</v>
       </c>
       <c r="L10">
-        <v>1.05664891079679</v>
+        <v>1.040387620324623</v>
       </c>
       <c r="M10">
-        <v>1.071582855635197</v>
+        <v>1.05754991294738</v>
       </c>
       <c r="N10">
-        <v>1.051233449973197</v>
+        <v>1.036584342141956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042863422690441</v>
+        <v>1.004057670103545</v>
       </c>
       <c r="D11">
-        <v>1.063351956739746</v>
+        <v>1.046085637159624</v>
       </c>
       <c r="E11">
-        <v>1.05274624957266</v>
+        <v>1.023953969902092</v>
       </c>
       <c r="F11">
-        <v>1.067706228009754</v>
+        <v>1.041255554454267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052128434129268</v>
+        <v>1.059526477867979</v>
       </c>
       <c r="J11">
-        <v>1.049375766640174</v>
+        <v>1.033262614125703</v>
       </c>
       <c r="K11">
-        <v>1.066820538175535</v>
+        <v>1.060187808989329</v>
       </c>
       <c r="L11">
-        <v>1.056252362328961</v>
+        <v>1.038437859247688</v>
       </c>
       <c r="M11">
-        <v>1.071159638365319</v>
+        <v>1.055439246492186</v>
       </c>
       <c r="N11">
-        <v>1.050866000593885</v>
+        <v>1.03472996555464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042641275112487</v>
+        <v>1.00288425941755</v>
       </c>
       <c r="D12">
-        <v>1.063178934255801</v>
+        <v>1.045186574557517</v>
       </c>
       <c r="E12">
-        <v>1.052554146951727</v>
+        <v>1.023006612409881</v>
       </c>
       <c r="F12">
-        <v>1.067504898441528</v>
+        <v>1.040252188733372</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052060984564512</v>
+        <v>1.059080265898148</v>
       </c>
       <c r="J12">
-        <v>1.049239474409284</v>
+        <v>1.032567051836603</v>
       </c>
       <c r="K12">
-        <v>1.066691782157368</v>
+        <v>1.05949641881057</v>
       </c>
       <c r="L12">
-        <v>1.056105111869819</v>
+        <v>1.037705928155593</v>
       </c>
       <c r="M12">
-        <v>1.071002466307113</v>
+        <v>1.05464682066381</v>
       </c>
       <c r="N12">
-        <v>1.050729514812395</v>
+        <v>1.034033415487307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042688920944061</v>
+        <v>1.003136539563434</v>
       </c>
       <c r="D13">
-        <v>1.063216045078468</v>
+        <v>1.045379838738898</v>
       </c>
       <c r="E13">
-        <v>1.052595345954614</v>
+        <v>1.0232102319077</v>
       </c>
       <c r="F13">
-        <v>1.067548077418609</v>
+        <v>1.040467855273916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052075461094542</v>
+        <v>1.059176270970145</v>
       </c>
       <c r="J13">
-        <v>1.049268709479068</v>
+        <v>1.032716608242233</v>
       </c>
       <c r="K13">
-        <v>1.066719403415504</v>
+        <v>1.059645089709096</v>
       </c>
       <c r="L13">
-        <v>1.056136695522135</v>
+        <v>1.037863284071343</v>
       </c>
       <c r="M13">
-        <v>1.071036178880161</v>
+        <v>1.054817186173369</v>
       </c>
       <c r="N13">
-        <v>1.050758791399332</v>
+        <v>1.034183184280187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042845057389748</v>
+        <v>1.003960935918133</v>
       </c>
       <c r="D14">
-        <v>1.063337653258003</v>
+        <v>1.046011505598304</v>
       </c>
       <c r="E14">
-        <v>1.052730366858789</v>
+        <v>1.023875844372437</v>
       </c>
       <c r="F14">
-        <v>1.067689582937542</v>
+        <v>1.041172814146888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0521228625013</v>
+        <v>1.059489724724644</v>
       </c>
       <c r="J14">
-        <v>1.049364500649099</v>
+        <v>1.033205278664602</v>
       </c>
       <c r="K14">
-        <v>1.066809896361837</v>
+        <v>1.060130822680113</v>
       </c>
       <c r="L14">
-        <v>1.056240189628375</v>
+        <v>1.038377516754042</v>
       </c>
       <c r="M14">
-        <v>1.071146645859893</v>
+        <v>1.05537391844907</v>
       </c>
       <c r="N14">
-        <v>1.050854718603812</v>
+        <v>1.034672548670608</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042941274517764</v>
+        <v>1.004467187844172</v>
       </c>
       <c r="D15">
-        <v>1.063412589081445</v>
+        <v>1.046399496226198</v>
       </c>
       <c r="E15">
-        <v>1.052813580099601</v>
+        <v>1.024284762587619</v>
       </c>
       <c r="F15">
-        <v>1.067776789328022</v>
+        <v>1.04160587851436</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052152043551123</v>
+        <v>1.05968200558918</v>
       </c>
       <c r="J15">
-        <v>1.049423520954339</v>
+        <v>1.033505328457972</v>
       </c>
       <c r="K15">
-        <v>1.066865644254472</v>
+        <v>1.060429034602623</v>
       </c>
       <c r="L15">
-        <v>1.056303961804881</v>
+        <v>1.038693321339262</v>
       </c>
       <c r="M15">
-        <v>1.071214712189348</v>
+        <v>1.055715811402886</v>
       </c>
       <c r="N15">
-        <v>1.050913822724655</v>
+        <v>1.0349730245691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04350154781493</v>
+        <v>1.007388536263254</v>
       </c>
       <c r="D16">
-        <v>1.063848884197491</v>
+        <v>1.048639739905311</v>
       </c>
       <c r="E16">
-        <v>1.053298257952732</v>
+        <v>1.026647030442843</v>
       </c>
       <c r="F16">
-        <v>1.068284674807404</v>
+        <v>1.044107232607719</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052321514861779</v>
+        <v>1.060788384534391</v>
       </c>
       <c r="J16">
-        <v>1.049767046877417</v>
+        <v>1.035236188729957</v>
       </c>
       <c r="K16">
-        <v>1.067190000987376</v>
+        <v>1.062148752318183</v>
       </c>
       <c r="L16">
-        <v>1.056675234692602</v>
+        <v>1.040515958247774</v>
       </c>
       <c r="M16">
-        <v>1.071610947251989</v>
+        <v>1.057688828831665</v>
       </c>
       <c r="N16">
-        <v>1.051257836493946</v>
+        <v>1.036706342861205</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043853209805945</v>
+        <v>1.009199289377057</v>
       </c>
       <c r="D17">
-        <v>1.064122679136935</v>
+        <v>1.050029419742055</v>
       </c>
       <c r="E17">
-        <v>1.053602582366502</v>
+        <v>1.028113469415978</v>
       </c>
       <c r="F17">
-        <v>1.068603526498722</v>
+        <v>1.045659654687802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052427488802511</v>
+        <v>1.061471316648404</v>
       </c>
       <c r="J17">
-        <v>1.049982532641254</v>
+        <v>1.036308485500436</v>
       </c>
       <c r="K17">
-        <v>1.067393354514866</v>
+        <v>1.063213648862838</v>
       </c>
       <c r="L17">
-        <v>1.056908203668375</v>
+        <v>1.041645891918554</v>
       </c>
       <c r="M17">
-        <v>1.071859546325614</v>
+        <v>1.058911819460219</v>
       </c>
       <c r="N17">
-        <v>1.051473628272284</v>
+        <v>1.037780162416091</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044058406193755</v>
+        <v>1.010247837069854</v>
       </c>
       <c r="D18">
-        <v>1.064282421239692</v>
+        <v>1.050834507851461</v>
       </c>
       <c r="E18">
-        <v>1.053780196785566</v>
+        <v>1.028963417818475</v>
       </c>
       <c r="F18">
-        <v>1.068789603488896</v>
+        <v>1.046559308241525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052489182091525</v>
+        <v>1.06186574113845</v>
       </c>
       <c r="J18">
-        <v>1.050108221839645</v>
+        <v>1.03692920654191</v>
       </c>
       <c r="K18">
-        <v>1.067511928231431</v>
+        <v>1.063829898345034</v>
       </c>
       <c r="L18">
-        <v>1.057044118685623</v>
+        <v>1.042300256102531</v>
       </c>
       <c r="M18">
-        <v>1.072004567963753</v>
+        <v>1.059620010316309</v>
       </c>
       <c r="N18">
-        <v>1.051599495963754</v>
+        <v>1.038401764952642</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044128386031166</v>
+        <v>1.010604088118805</v>
       </c>
       <c r="D19">
-        <v>1.064336896263189</v>
+        <v>1.051108102305089</v>
       </c>
       <c r="E19">
-        <v>1.053840776833109</v>
+        <v>1.029252324310218</v>
       </c>
       <c r="F19">
-        <v>1.06885306719428</v>
+        <v>1.04686508772024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052510197612547</v>
+        <v>1.061999571667935</v>
       </c>
       <c r="J19">
-        <v>1.050151078572633</v>
+        <v>1.037140063704809</v>
       </c>
       <c r="K19">
-        <v>1.067552352155673</v>
+        <v>1.0640392038599</v>
       </c>
       <c r="L19">
-        <v>1.057090466929616</v>
+        <v>1.042522588874641</v>
       </c>
       <c r="M19">
-        <v>1.072054019603226</v>
+        <v>1.059860620577217</v>
       </c>
       <c r="N19">
-        <v>1.051642413558219</v>
+        <v>1.038612921556897</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043815471735293</v>
+        <v>1.009005806688624</v>
       </c>
       <c r="D20">
-        <v>1.064093299158784</v>
+        <v>1.049880890638885</v>
       </c>
       <c r="E20">
-        <v>1.053569920143015</v>
+        <v>1.027956695901687</v>
       </c>
       <c r="F20">
-        <v>1.068569306766912</v>
+        <v>1.045493702435902</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052416131158177</v>
+        <v>1.061398451354461</v>
       </c>
       <c r="J20">
-        <v>1.049959413049958</v>
+        <v>1.036193929974094</v>
       </c>
       <c r="K20">
-        <v>1.067371540625425</v>
+        <v>1.063099903201299</v>
       </c>
       <c r="L20">
-        <v>1.056883205380314</v>
+        <v>1.041525149964734</v>
       </c>
       <c r="M20">
-        <v>1.071832872124691</v>
+        <v>1.058781140266234</v>
       </c>
       <c r="N20">
-        <v>1.051450475848517</v>
+        <v>1.037665444207763</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042799075697761</v>
+        <v>1.003718524126938</v>
       </c>
       <c r="D21">
-        <v>1.063301840799838</v>
+        <v>1.04582574619542</v>
       </c>
       <c r="E21">
-        <v>1.052690601897165</v>
+        <v>1.023680086273933</v>
       </c>
       <c r="F21">
-        <v>1.067647908883975</v>
+        <v>1.040965489652584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052108909075407</v>
+        <v>1.059397597559828</v>
       </c>
       <c r="J21">
-        <v>1.049336292492498</v>
+        <v>1.033061593903858</v>
       </c>
       <c r="K21">
-        <v>1.066783250066732</v>
+        <v>1.059988008717583</v>
       </c>
       <c r="L21">
-        <v>1.056209711932562</v>
+        <v>1.038226303494742</v>
       </c>
       <c r="M21">
-        <v>1.071114115256418</v>
+        <v>1.055210210373358</v>
       </c>
       <c r="N21">
-        <v>1.050826470388393</v>
+        <v>1.034528659861023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042160738237942</v>
+        <v>1.000321094116598</v>
       </c>
       <c r="D22">
-        <v>1.062804611488867</v>
+        <v>1.043224021752804</v>
       </c>
       <c r="E22">
-        <v>1.052138716515184</v>
+        <v>1.020939692452664</v>
       </c>
       <c r="F22">
-        <v>1.067069468652383</v>
+        <v>1.03806270989948</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05191467505888</v>
+        <v>1.058102722345412</v>
       </c>
       <c r="J22">
-        <v>1.04894451982838</v>
+        <v>1.03104720036526</v>
       </c>
       <c r="K22">
-        <v>1.066413026850991</v>
+        <v>1.057985226509682</v>
       </c>
       <c r="L22">
-        <v>1.055786522605444</v>
+        <v>1.036107438425917</v>
       </c>
       <c r="M22">
-        <v>1.070662376739892</v>
+        <v>1.052916056264408</v>
       </c>
       <c r="N22">
-        <v>1.050434141362155</v>
+        <v>1.032511405652546</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042499065150529</v>
+        <v>1.002129283829383</v>
       </c>
       <c r="D23">
-        <v>1.063068164405227</v>
+        <v>1.044608316038145</v>
       </c>
       <c r="E23">
-        <v>1.052431188232001</v>
+        <v>1.022397454579554</v>
       </c>
       <c r="F23">
-        <v>1.067376026816516</v>
+        <v>1.039606961486175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052017743469076</v>
+        <v>1.058792732460681</v>
       </c>
       <c r="J23">
-        <v>1.049152204788287</v>
+        <v>1.032119449019965</v>
       </c>
       <c r="K23">
-        <v>1.066609321107727</v>
+        <v>1.0590514294316</v>
       </c>
       <c r="L23">
-        <v>1.056010837929904</v>
+        <v>1.03723504851801</v>
       </c>
       <c r="M23">
-        <v>1.070901835030824</v>
+        <v>1.054136997761075</v>
       </c>
       <c r="N23">
-        <v>1.050642121258526</v>
+        <v>1.033585177023329</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04383252370445</v>
+        <v>1.009093256733337</v>
       </c>
       <c r="D24">
-        <v>1.064106574576256</v>
+        <v>1.049948021481558</v>
       </c>
       <c r="E24">
-        <v>1.053584678465051</v>
+        <v>1.02802755176469</v>
       </c>
       <c r="F24">
-        <v>1.068584768893748</v>
+        <v>1.045568707156072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052421263558143</v>
+        <v>1.061431388136715</v>
       </c>
       <c r="J24">
-        <v>1.049969859798229</v>
+        <v>1.036245707283015</v>
       </c>
       <c r="K24">
-        <v>1.067381397503622</v>
+        <v>1.063151315048271</v>
       </c>
       <c r="L24">
-        <v>1.056894500943809</v>
+        <v>1.041579722578255</v>
       </c>
       <c r="M24">
-        <v>1.071844924992456</v>
+        <v>1.058840204485765</v>
       </c>
       <c r="N24">
-        <v>1.051460937432368</v>
+        <v>1.0377172950464</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045382979045832</v>
+        <v>1.016876981119613</v>
       </c>
       <c r="D25">
-        <v>1.065313238644726</v>
+        <v>1.055930311644149</v>
       </c>
       <c r="E25">
-        <v>1.054927436294413</v>
+        <v>1.034350370099694</v>
       </c>
       <c r="F25">
-        <v>1.069991213631526</v>
+        <v>1.05225890998851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052884834863391</v>
+        <v>1.064340378783375</v>
       </c>
       <c r="J25">
-        <v>1.050918698649173</v>
+        <v>1.040849417296394</v>
       </c>
       <c r="K25">
-        <v>1.068275816105589</v>
+        <v>1.067718271354857</v>
       </c>
       <c r="L25">
-        <v>1.057921042373558</v>
+        <v>1.046437856438497</v>
       </c>
       <c r="M25">
-        <v>1.072940029277278</v>
+        <v>1.064096736287007</v>
       </c>
       <c r="N25">
-        <v>1.052411123743314</v>
+        <v>1.042327542856052</v>
       </c>
     </row>
   </sheetData>
